--- a/df1.xlsx
+++ b/df1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sub Coord Eng Mec\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sub Coord Eng Mec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0712F3A-B4A4-4942-8D45-FD2D4EC00294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC851449-3A1C-45F1-9EE1-C4EC29D68ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD2DCC41-787D-448D-AE57-700D64890149}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
   <si>
-    <t>Primeiro  Nome</t>
-  </si>
-  <si>
     <t>Sobrenome</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>7.5</t>
+  </si>
+  <si>
+    <t>Primeiro Nome</t>
   </si>
 </sst>
 </file>
@@ -784,9 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA09FF-28F7-4FC2-B14A-B17E99E952FD}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,622 +797,622 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/df1.xlsx
+++ b/df1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sub Coord Eng Mec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC851449-3A1C-45F1-9EE1-C4EC29D68ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58049D42-C74C-47A9-BDC4-DF739D2BE8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD2DCC41-787D-448D-AE57-700D64890149}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t>Sobrenome</t>
   </si>
@@ -784,7 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA09FF-28F7-4FC2-B14A-B17E99E952FD}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1182,18 +1184,10 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">

--- a/df1.xlsx
+++ b/df1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sub Coord Eng Mec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58049D42-C74C-47A9-BDC4-DF739D2BE8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBC81F-49EF-45DC-BBFA-DF60B5FC958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD2DCC41-787D-448D-AE57-700D64890149}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Trabalho 1</t>
   </si>
   <si>
-    <t xml:space="preserve">P2 </t>
-  </si>
-  <si>
     <t>Trabalho 2</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>Primeiro Nome</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA09FF-28F7-4FC2-B14A-B17E99E952FD}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -811,378 +811,378 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1191,222 +1191,222 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
